--- a/work/moto_sample.xlsx
+++ b/work/moto_sample.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02ABEA-DE1F-46D5-AECA-544A49028677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="請求書元" sheetId="1" r:id="rId1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
@@ -1075,10 +1074,107 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,7 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1118,8 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,100 +1228,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,11 +1538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1558,39 +1557,39 @@
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
@@ -1627,11 +1626,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1641,131 +1640,131 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="51"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1779,94 +1778,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,35 +1900,8 @@
       <c r="AA35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G20:G21"/>
+  <mergeCells count="45">
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1946,6 +1918,34 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1954,10 +1954,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731D5891-1FD8-48F0-999C-982B01E09964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -1976,45 +1976,45 @@
       <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="41">
         <v>44500</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="43">
         <v>211001</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="13" t="s">
@@ -2051,11 +2051,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2065,161 +2065,161 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="51"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="68">
         <v>200702</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="82">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="30">
         <v>1</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="64">
         <v>133000</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="70">
         <v>200901</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="84">
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="34">
         <v>1</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G20" s="66">
         <v>80000</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="46">
+      <c r="A22" s="84"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="65">
         <v>21300</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="26"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="85" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="92"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="26"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="11">
         <f>SUM(G18:G27)</f>
         <v>234300</v>
@@ -2236,94 +2236,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,17 +2361,25 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="H24:I25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A22:A23"/>
@@ -2386,25 +2394,17 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work/moto_sample.xlsx
+++ b/work/moto_sample.xlsx
@@ -1034,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,41 +1074,132 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,107 +1217,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,6 +1236,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,7 +1578,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1557,39 +1593,39 @@
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
@@ -1626,11 +1662,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1640,131 +1676,131 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="73"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1778,94 +1814,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,6 +1937,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
@@ -1917,35 +1982,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1976,45 +2012,45 @@
       <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="64">
         <v>44500</v>
       </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="66">
         <v>211001</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="13" t="s">
@@ -2051,11 +2087,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2065,161 +2101,161 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="73"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68">
+      <c r="A18" s="22">
         <v>200702</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30">
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="78">
         <v>1</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="61">
         <v>133000</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="24">
         <v>200901</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="34">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="79">
         <v>1</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="63">
         <v>80000</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="65">
+      <c r="A22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49">
         <v>21300</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="92"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="11">
         <f>SUM(G18:G27)</f>
         <v>234300</v>
@@ -2236,94 +2272,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,25 +2397,17 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="H24:I25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A22:A23"/>
@@ -2394,17 +2422,25 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work/moto_sample.xlsx
+++ b/work/moto_sample.xlsx
@@ -10,7 +10,7 @@
     <sheet name="請求書元" sheetId="1" r:id="rId1"/>
     <sheet name="請求書211001" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -213,9 +213,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -266,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1026,59 @@
       </left>
       <right/>
       <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -1034,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,15 +1128,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1105,24 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1148,9 +1175,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,13 +1195,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,6 +1225,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,13 +1240,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,6 +1262,24 @@
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,42 +1290,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1577,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1593,39 +1668,39 @@
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
@@ -1662,11 +1737,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1676,131 +1751,131 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="64"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-    </row>
-    <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1814,94 +1889,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,9 +2011,7 @@
       <c r="AA35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+  <mergeCells count="35">
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F18:F19"/>
@@ -1947,18 +2020,14 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="H22:I23"/>
@@ -1966,7 +2035,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1974,9 +2042,6 @@
     <mergeCell ref="B31:AA31"/>
     <mergeCell ref="C32:Y32"/>
     <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -1985,7 +2050,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2012,45 +2077,45 @@
       <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="64">
+      <c r="H1" s="77">
         <v>44500</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="56">
         <v>211001</v>
       </c>
-      <c r="I2" s="65"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="13" t="s">
@@ -2087,11 +2152,11 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2101,161 +2166,161 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="64"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>200702</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="78">
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="69">
         <v>1</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="51">
         <v>133000</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>200901</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="79">
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="71">
         <v>1</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="53">
         <v>80000</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49">
+      <c r="A22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="40">
         <v>21300</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="29"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="91" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:27" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:27" ht="26.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="11">
         <f>SUM(G18:G27)</f>
         <v>234300</v>
@@ -2272,94 +2337,94 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
